--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/88/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/88/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5145145145145145</v>
+        <v>0.2878287828782878</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1889.88988988989</v>
+        <v>128.5028502850285</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05175175175175176</v>
+        <v>0.06545654565456546</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7087087087087087</v>
+        <v>0.6596659665966597</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>544.5445445445446</v>
+        <v>838.2238223822383</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>423.4234234234235</v>
+        <v>468.2268226822682</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>257.2572572572573</v>
+        <v>474.97299729973</v>
       </c>
     </row>
   </sheetData>
